--- a/packages/central-server/__tests__/importers/refdata-valid-invoice-product.xlsx
+++ b/packages/central-server/__tests__/importers/refdata-valid-invoice-product.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">sourceRecordId</t>
   </si>
   <si>
-    <t xml:space="preserve">sourceRecordType</t>
+    <t xml:space="preserve">category</t>
   </si>
   <si>
     <t xml:space="preserve">discountable</t>
@@ -166,10 +166,10 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="24"/>
@@ -210,7 +210,8 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="2" t="b">
+      <c r="F2" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
